--- a/01_Analisis_Exploratorio/02_Datos/Biologicos/Relaciones_Datos.xlsx
+++ b/01_Analisis_Exploratorio/02_Datos/Biologicos/Relaciones_Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Ictioplancton\Analisis_Exp_Pac\Ictioplancton_ExPacifico2020\01_Analisis_Exploratorio\02_Datos\Biologicos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A937CD-B0F7-497C-B7D9-EC92536B3EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69980727-7887-489B-B0C4-E1E4E66062A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos_Evento_Muestreo" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="316">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -958,6 +958,39 @@
   </si>
   <si>
     <t>CCCP:EXP.PACÍFICO:A01:2021:36</t>
+  </si>
+  <si>
+    <t>CM_Bentos</t>
+  </si>
+  <si>
+    <t>SP-21-0211</t>
+  </si>
+  <si>
+    <t>SP-21-0231</t>
+  </si>
+  <si>
+    <t>SP-21-0215</t>
+  </si>
+  <si>
+    <t>SP-21-0248</t>
+  </si>
+  <si>
+    <t>SP-21-0252</t>
+  </si>
+  <si>
+    <t>SP-21-0302</t>
+  </si>
+  <si>
+    <t>SP-21-0256</t>
+  </si>
+  <si>
+    <t>SP-21-0290</t>
+  </si>
+  <si>
+    <t>SP-21-0294</t>
+  </si>
+  <si>
+    <t>SP-21-0298</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1056,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1070,11 +1103,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1174,6 +1216,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1454,13 +1498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE4B3A2-F13A-4A19-AFAD-8C9C173C5E7B}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:P37"/>
+      <selection pane="bottomRight" activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1523,7 @@
     <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1528,8 +1572,11 @@
       <c r="P1" s="22" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1578,8 +1625,11 @@
       <c r="P2" s="31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1628,8 +1678,11 @@
       <c r="P3" s="31" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1679,7 +1732,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1729,7 +1782,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1779,7 +1832,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1829,7 +1882,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1878,8 +1931,11 @@
       <c r="P8" s="31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1929,7 +1985,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1979,7 +2035,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2029,7 +2085,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2079,7 +2135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2128,8 +2184,11 @@
       <c r="P13" s="31" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2178,8 +2237,11 @@
       <c r="P14" s="31" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2228,8 +2290,11 @@
       <c r="P15" s="31" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2279,7 +2344,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2329,7 +2394,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -2379,7 +2444,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2429,7 +2494,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -2479,7 +2544,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -2529,7 +2594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2579,7 +2644,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -2629,7 +2694,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -2679,7 +2744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2729,7 +2794,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -2778,8 +2843,11 @@
       <c r="P26" s="31" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" s="37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2828,8 +2896,11 @@
       <c r="P27" s="31" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="37" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2878,8 +2949,11 @@
       <c r="P28" s="31" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" s="37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -2928,8 +3002,11 @@
       <c r="P29" s="31" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="38" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -2979,7 +3056,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3029,7 +3106,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6092,8 +6169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
